--- a/src/test/java/sda/homework/day18/resources/excelfile.xlsx
+++ b/src/test/java/sda/homework/day18/resources/excelfile.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remoo\IdeaProjects\SDA2024_TestNG\src\test\java\sda\homework\day18\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584FEBD-3DC6-43B7-B6AD-E5C1B52F99E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F204EB-D592-439B-945C-C4187598DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="2" r:id="rId1"/>
+    <sheet name="CorrectCer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>user2</t>
   </si>
@@ -85,6 +86,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>student</t>
   </si>
 </sst>
 </file>
@@ -343,7 +350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +443,39 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8D5D02-11B4-4592-98D7-207E61FDDC80}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>